--- a/public/excels/bien_muc_sach.xlsx
+++ b/public/excels/bien_muc_sach.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Nhan đề song song</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Ngôn ngữ</t>
-  </si>
-  <si>
-    <t>Số cutter</t>
   </si>
   <si>
     <t>Số phân loại</t>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,17 +490,16 @@
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="25.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -529,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -547,10 +543,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
@@ -564,60 +560,57 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3">
-        <v>30</v>
-      </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
